--- a/MedicalLink/Templates/BC_34_ThongKeSuDungDichVuUngBuou_ChiTiet.xlsx
+++ b/MedicalLink/Templates/BC_34_ThongKeSuDungDichVuUngBuou_ChiTiet.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>&amp;=&amp;=IF(P{r}=1,O{r},0)</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].LOAIDOITUONG</t>
+  </si>
+  <si>
+    <t>Đối tượng:</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -340,6 +346,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -714,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,8 +747,8 @@
     <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="20.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="17" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="13.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -786,6 +799,21 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="6" spans="1:18" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
